--- a/conditions/schedules/train_y_first/blue_star_00/top_right/inputTrain_3.1.xlsx
+++ b/conditions/schedules/train_y_first/blue_star_00/top_right/inputTrain_3.1.xlsx
@@ -1,21 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_y_first\blue_star_00\top_right\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38751D9D-9CBF-40B7-9AA3-C5F9DC823198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+  <si>
+    <t>trialTrain</t>
+  </si>
+  <si>
+    <t>x_fixStart</t>
+  </si>
+  <si>
+    <t>y_fixStart</t>
+  </si>
+  <si>
+    <t>x_corrSteps</t>
+  </si>
+  <si>
+    <t>y_corrSteps</t>
+  </si>
+  <si>
+    <t>x_nrSteps</t>
+  </si>
+  <si>
+    <t>y_nrSteps</t>
+  </si>
+  <si>
+    <t>alienID</t>
+  </si>
+  <si>
+    <t>praclen</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>train_dim2_1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +103,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,66 +404,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:K31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>trialTrain</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>x_fixStart</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>y_fixStart</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>x_corrSteps</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>y_corrSteps</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>x_nrSteps</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>y_nrSteps</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>alienID</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>praclen</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,15 +471,13 @@
         <v>34</v>
       </c>
       <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -469,15 +503,13 @@
         <v>56</v>
       </c>
       <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,15 +535,13 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>25</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -537,15 +567,13 @@
         <v>45</v>
       </c>
       <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -571,15 +599,13 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -605,15 +631,13 @@
         <v>23</v>
       </c>
       <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -639,15 +663,13 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -673,15 +695,13 @@
         <v>56</v>
       </c>
       <c r="I9">
-        <v>25</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -707,15 +727,13 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>25</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -741,15 +759,13 @@
         <v>34</v>
       </c>
       <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -775,15 +791,13 @@
         <v>45</v>
       </c>
       <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -809,15 +823,13 @@
         <v>56</v>
       </c>
       <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -843,15 +855,13 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>25</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -877,15 +887,13 @@
         <v>34</v>
       </c>
       <c r="I15">
-        <v>25</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -911,15 +919,13 @@
         <v>23</v>
       </c>
       <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -945,15 +951,13 @@
         <v>34</v>
       </c>
       <c r="I17">
-        <v>25</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -979,15 +983,13 @@
         <v>56</v>
       </c>
       <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1013,15 +1015,13 @@
         <v>12</v>
       </c>
       <c r="I19">
-        <v>25</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1047,15 +1047,13 @@
         <v>45</v>
       </c>
       <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1081,15 +1079,13 @@
         <v>23</v>
       </c>
       <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1115,15 +1111,13 @@
         <v>12</v>
       </c>
       <c r="I22">
-        <v>25</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1149,15 +1143,13 @@
         <v>23</v>
       </c>
       <c r="I23">
-        <v>25</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1183,15 +1175,13 @@
         <v>56</v>
       </c>
       <c r="I24">
-        <v>25</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1217,15 +1207,13 @@
         <v>34</v>
       </c>
       <c r="I25">
-        <v>25</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1251,12 +1239,170 @@
         <v>45</v>
       </c>
       <c r="I26">
-        <v>25</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>train_dim2_1</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-5</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>-2</v>
+      </c>
+      <c r="G28">
+        <v>-4</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>-3</v>
+      </c>
+      <c r="G29">
+        <v>-3</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>-5</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>-4</v>
+      </c>
+      <c r="G31">
+        <v>-2</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
